--- a/dataanalysis/data/predictions/1400/08281425_1428.xlsx
+++ b/dataanalysis/data/predictions/1400/08281425_1428.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="191">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-28</t>
   </si>
   <si>
@@ -584,12 +587,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -947,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AI106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,19 +1053,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.17</v>
@@ -1086,7 +1086,7 @@
         <v>54168.29</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -1127,8 +1127,23 @@
       <c r="W2">
         <v>-0.05</v>
       </c>
+      <c r="X2">
+        <v>-3.6</v>
+      </c>
+      <c r="Y2">
+        <v>13.12</v>
+      </c>
+      <c r="Z2">
+        <v>9.609999999999999</v>
+      </c>
       <c r="AC2" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1136,22 +1151,25 @@
       <c r="AG2">
         <v>1.819541692733765</v>
       </c>
-      <c r="AH2" t="s">
-        <v>190</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300037</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.65</v>
@@ -1169,7 +1187,7 @@
         <v>114550.03</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1210,8 +1228,23 @@
       <c r="W3">
         <v>-0.25</v>
       </c>
+      <c r="X3">
+        <v>2.9</v>
+      </c>
+      <c r="Y3">
+        <v>49.56</v>
+      </c>
+      <c r="Z3">
+        <v>8.57</v>
+      </c>
       <c r="AC3" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1219,22 +1252,25 @@
       <c r="AG3">
         <v>11.02063179016113</v>
       </c>
-      <c r="AH3" t="s">
-        <v>190</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>12.88</v>
@@ -1252,7 +1288,7 @@
         <v>269662.41</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1293,8 +1329,23 @@
       <c r="W4">
         <v>1.69</v>
       </c>
+      <c r="X4">
+        <v>-0.03</v>
+      </c>
+      <c r="Y4">
+        <v>68</v>
+      </c>
+      <c r="Z4">
+        <v>6.87</v>
+      </c>
       <c r="AC4" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1302,22 +1353,25 @@
       <c r="AG4">
         <v>-3.84084677696228</v>
       </c>
-      <c r="AH4" t="s">
-        <v>190</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.06</v>
@@ -1335,7 +1389,7 @@
         <v>106745.05</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -1376,8 +1430,23 @@
       <c r="W5">
         <v>-0.64</v>
       </c>
+      <c r="X5">
+        <v>-4.18</v>
+      </c>
+      <c r="Y5">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>1.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1385,22 +1454,25 @@
       <c r="AG5">
         <v>1.52500307559967</v>
       </c>
-      <c r="AH5" t="s">
-        <v>190</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300085</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.99</v>
@@ -1418,7 +1490,7 @@
         <v>543516.26</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1459,8 +1531,23 @@
       <c r="W6">
         <v>1.17</v>
       </c>
+      <c r="X6">
+        <v>0.35</v>
+      </c>
+      <c r="Y6">
+        <v>61.8</v>
+      </c>
+      <c r="Z6">
+        <v>10.59</v>
+      </c>
       <c r="AC6" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1468,22 +1555,25 @@
       <c r="AG6">
         <v>4.298592567443848</v>
       </c>
-      <c r="AH6" t="s">
-        <v>190</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300113</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.24</v>
@@ -1501,7 +1591,7 @@
         <v>113529.93</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1542,8 +1632,23 @@
       <c r="W7">
         <v>-0.67</v>
       </c>
+      <c r="X7">
+        <v>-2.79</v>
+      </c>
+      <c r="Y7">
+        <v>27.85</v>
+      </c>
+      <c r="Z7">
+        <v>2.58</v>
+      </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1551,22 +1656,25 @@
       <c r="AG7">
         <v>8.927581787109375</v>
       </c>
-      <c r="AH7" t="s">
-        <v>190</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300127</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>4.67</v>
@@ -1584,7 +1692,7 @@
         <v>122170.28</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -1625,8 +1733,23 @@
       <c r="W8">
         <v>0.41</v>
       </c>
+      <c r="X8">
+        <v>-4.11</v>
+      </c>
+      <c r="Y8">
+        <v>36.16</v>
+      </c>
+      <c r="Z8">
+        <v>2.03</v>
+      </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1634,22 +1757,25 @@
       <c r="AG8">
         <v>-0.4705919325351715</v>
       </c>
-      <c r="AH8" t="s">
-        <v>190</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300192</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.31</v>
@@ -1667,7 +1793,7 @@
         <v>169546.42</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1708,8 +1834,23 @@
       <c r="W9">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X9">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>24.33</v>
+      </c>
+      <c r="Z9">
+        <v>1.76</v>
+      </c>
       <c r="AC9" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1717,22 +1858,25 @@
       <c r="AG9">
         <v>4.342862606048584</v>
       </c>
-      <c r="AH9" t="s">
-        <v>190</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300218</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.79</v>
@@ -1750,7 +1894,7 @@
         <v>58168.2</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1791,8 +1935,23 @@
       <c r="W10">
         <v>1.2</v>
       </c>
+      <c r="X10">
+        <v>-2.08</v>
+      </c>
+      <c r="Y10">
+        <v>26.4</v>
+      </c>
+      <c r="Z10">
+        <v>4.85</v>
+      </c>
       <c r="AC10" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1800,22 +1959,25 @@
       <c r="AG10">
         <v>5.351418972015381</v>
       </c>
-      <c r="AH10" t="s">
-        <v>190</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300222</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-6.95</v>
@@ -1833,7 +1995,7 @@
         <v>272266.32</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1874,8 +2036,23 @@
       <c r="W11">
         <v>-4.11</v>
       </c>
+      <c r="X11">
+        <v>-5.38</v>
+      </c>
+      <c r="Y11">
+        <v>14.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.22</v>
+      </c>
       <c r="AC11" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1883,22 +2060,25 @@
       <c r="AG11">
         <v>-0.254839301109314</v>
       </c>
-      <c r="AH11" t="s">
-        <v>190</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300236</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>13.19</v>
@@ -1916,7 +2096,7 @@
         <v>228577</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1957,8 +2137,23 @@
       <c r="W12">
         <v>-0.72</v>
       </c>
+      <c r="X12">
+        <v>-6.16</v>
+      </c>
+      <c r="Y12">
+        <v>59.5</v>
+      </c>
+      <c r="Z12">
+        <v>-1.08</v>
+      </c>
       <c r="AC12" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1966,22 +2161,25 @@
       <c r="AG12">
         <v>7.554669857025146</v>
       </c>
-      <c r="AH12" t="s">
-        <v>190</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300237</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>6.02</v>
@@ -1999,7 +2197,7 @@
         <v>65127.07</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2040,8 +2238,23 @@
       <c r="W13">
         <v>-0.05</v>
       </c>
+      <c r="X13">
+        <v>-5.76</v>
+      </c>
+      <c r="Y13">
+        <v>2.93</v>
+      </c>
+      <c r="Z13">
+        <v>3.9</v>
+      </c>
       <c r="AC13" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2049,22 +2262,25 @@
       <c r="AG13">
         <v>7.119319915771484</v>
       </c>
-      <c r="AH13" t="s">
-        <v>190</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>7.02</v>
@@ -2082,7 +2298,7 @@
         <v>147682.33</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -2123,8 +2339,23 @@
       <c r="W14">
         <v>0.03</v>
       </c>
+      <c r="X14">
+        <v>0.43</v>
+      </c>
+      <c r="Y14">
+        <v>26.35</v>
+      </c>
+      <c r="Z14">
+        <v>2.89</v>
+      </c>
       <c r="AC14" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2132,22 +2363,25 @@
       <c r="AG14">
         <v>3.7532958984375</v>
       </c>
-      <c r="AH14" t="s">
-        <v>190</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300308</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>9.09</v>
@@ -2165,7 +2399,7 @@
         <v>1754075.34</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>33</v>
@@ -2206,8 +2440,23 @@
       <c r="W15">
         <v>0.02</v>
       </c>
+      <c r="X15">
+        <v>-1.14</v>
+      </c>
+      <c r="Y15">
+        <v>367.7</v>
+      </c>
+      <c r="Z15">
+        <v>3.68</v>
+      </c>
       <c r="AC15" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2215,22 +2464,25 @@
       <c r="AG15">
         <v>0.4635325372219086</v>
       </c>
-      <c r="AH15" t="s">
-        <v>190</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>9.98</v>
@@ -2248,7 +2500,7 @@
         <v>237573.96</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16">
         <v>24</v>
@@ -2289,8 +2541,23 @@
       <c r="W16">
         <v>1.74</v>
       </c>
+      <c r="X16">
+        <v>-4.65</v>
+      </c>
+      <c r="Y16">
+        <v>29.08</v>
+      </c>
+      <c r="Z16">
+        <v>-0.75</v>
+      </c>
       <c r="AC16" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2298,22 +2565,25 @@
       <c r="AG16">
         <v>3.497310638427734</v>
       </c>
-      <c r="AH16" t="s">
-        <v>190</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300324</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>10.36</v>
@@ -2331,7 +2601,7 @@
         <v>266736.38</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2372,8 +2642,23 @@
       <c r="W17">
         <v>2.79</v>
       </c>
+      <c r="X17">
+        <v>-5.99</v>
+      </c>
+      <c r="Y17">
+        <v>6.75</v>
+      </c>
+      <c r="Z17">
+        <v>0.6</v>
+      </c>
       <c r="AC17" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2381,22 +2666,25 @@
       <c r="AG17">
         <v>4.301056861877441</v>
       </c>
-      <c r="AH17" t="s">
-        <v>190</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300328</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.96</v>
@@ -2414,7 +2702,7 @@
         <v>139319.96</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2455,8 +2743,23 @@
       <c r="W18">
         <v>-1.19</v>
       </c>
+      <c r="X18">
+        <v>2.76</v>
+      </c>
+      <c r="Y18">
+        <v>18.49</v>
+      </c>
+      <c r="Z18">
+        <v>4.23</v>
+      </c>
       <c r="AC18" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2464,22 +2767,25 @@
       <c r="AG18">
         <v>5.330047130584717</v>
       </c>
-      <c r="AH18" t="s">
-        <v>190</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300339</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.54</v>
@@ -2497,7 +2803,7 @@
         <v>568988.26</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2538,8 +2844,23 @@
       <c r="W19">
         <v>-0.23</v>
       </c>
+      <c r="X19">
+        <v>-4.87</v>
+      </c>
+      <c r="Y19">
+        <v>69</v>
+      </c>
+      <c r="Z19">
+        <v>2.4</v>
+      </c>
       <c r="AC19" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2547,22 +2868,25 @@
       <c r="AG19">
         <v>30.12412643432617</v>
       </c>
-      <c r="AH19" t="s">
-        <v>190</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300394</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2580,7 +2904,7 @@
         <v>1133616.54</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20">
         <v>23</v>
@@ -2621,8 +2945,23 @@
       <c r="W20">
         <v>0.47</v>
       </c>
+      <c r="X20">
+        <v>10.29</v>
+      </c>
+      <c r="Y20">
+        <v>200.88</v>
+      </c>
+      <c r="Z20">
+        <v>11.59</v>
+      </c>
       <c r="AC20" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2630,22 +2969,25 @@
       <c r="AG20">
         <v>-3.643629550933838</v>
       </c>
-      <c r="AH20" t="s">
-        <v>190</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300433</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-1.43</v>
@@ -2663,7 +3005,7 @@
         <v>377622.55</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2704,8 +3046,23 @@
       <c r="W21">
         <v>-0.09</v>
       </c>
+      <c r="X21">
+        <v>-2.23</v>
+      </c>
+      <c r="Y21">
+        <v>32</v>
+      </c>
+      <c r="Z21">
+        <v>3.39</v>
+      </c>
       <c r="AC21" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2713,22 +3070,25 @@
       <c r="AG21">
         <v>1.8377845287323</v>
       </c>
-      <c r="AH21" t="s">
-        <v>190</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300458</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.17</v>
@@ -2746,7 +3106,7 @@
         <v>372980.17</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2787,8 +3147,23 @@
       <c r="W22">
         <v>0.29</v>
       </c>
+      <c r="X22">
+        <v>-3.26</v>
+      </c>
+      <c r="Y22">
+        <v>47.59</v>
+      </c>
+      <c r="Z22">
+        <v>-0.61</v>
+      </c>
       <c r="AC22" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2796,22 +3171,25 @@
       <c r="AG22">
         <v>-18.22881317138672</v>
       </c>
-      <c r="AH22" t="s">
-        <v>190</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300465</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.51</v>
@@ -2829,7 +3207,7 @@
         <v>171167.86</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2870,8 +3248,23 @@
       <c r="W23">
         <v>-0.58</v>
       </c>
+      <c r="X23">
+        <v>10.06</v>
+      </c>
+      <c r="Y23">
+        <v>24.26</v>
+      </c>
+      <c r="Z23">
+        <v>16.3</v>
+      </c>
       <c r="AC23" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2879,22 +3272,25 @@
       <c r="AG23">
         <v>3.473313093185425</v>
       </c>
-      <c r="AH23" t="s">
-        <v>190</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300469</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>6.6</v>
@@ -2912,7 +3308,7 @@
         <v>112211.14</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2953,8 +3349,23 @@
       <c r="W24">
         <v>0.06</v>
       </c>
+      <c r="X24">
+        <v>0.67</v>
+      </c>
+      <c r="Y24">
+        <v>58</v>
+      </c>
+      <c r="Z24">
+        <v>5.03</v>
+      </c>
       <c r="AC24" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2962,22 +3373,25 @@
       <c r="AG24">
         <v>2.862394332885742</v>
       </c>
-      <c r="AH24" t="s">
-        <v>190</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300476</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>18.32</v>
@@ -2995,7 +3409,7 @@
         <v>2084176.49</v>
       </c>
       <c r="J25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25">
         <v>57</v>
@@ -3036,8 +3450,23 @@
       <c r="W25">
         <v>0.62</v>
       </c>
+      <c r="X25">
+        <v>3.2</v>
+      </c>
+      <c r="Y25">
+        <v>278.8</v>
+      </c>
+      <c r="Z25">
+        <v>8.800000000000001</v>
+      </c>
       <c r="AC25" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3045,22 +3474,25 @@
       <c r="AG25">
         <v>-2.328463315963745</v>
       </c>
-      <c r="AH25" t="s">
-        <v>190</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300480</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>8.630000000000001</v>
@@ -3078,7 +3510,7 @@
         <v>69119.89999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3119,8 +3551,23 @@
       <c r="W26">
         <v>1.54</v>
       </c>
+      <c r="X26">
+        <v>-3.64</v>
+      </c>
+      <c r="Y26">
+        <v>19.15</v>
+      </c>
+      <c r="Z26">
+        <v>0.1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3128,22 +3575,25 @@
       <c r="AG26">
         <v>3.910109519958496</v>
       </c>
-      <c r="AH26" t="s">
-        <v>190</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300486</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-5.78</v>
@@ -3161,7 +3611,7 @@
         <v>133987.16</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -3202,8 +3652,23 @@
       <c r="W27">
         <v>-0.85</v>
       </c>
+      <c r="X27">
+        <v>-7.02</v>
+      </c>
+      <c r="Y27">
+        <v>22.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.19</v>
+      </c>
       <c r="AC27" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3211,22 +3676,25 @@
       <c r="AG27">
         <v>1.430140733718872</v>
       </c>
-      <c r="AH27" t="s">
-        <v>190</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300491</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>11.44</v>
@@ -3244,7 +3712,7 @@
         <v>75859.77</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3285,8 +3753,23 @@
       <c r="W28">
         <v>-0.54</v>
       </c>
+      <c r="X28">
+        <v>5.86</v>
+      </c>
+      <c r="Y28">
+        <v>39.9</v>
+      </c>
+      <c r="Z28">
+        <v>17.7</v>
+      </c>
       <c r="AC28" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3294,22 +3777,25 @@
       <c r="AG28">
         <v>3.531917810440063</v>
       </c>
-      <c r="AH28" t="s">
-        <v>190</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300496</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1.54</v>
@@ -3327,7 +3813,7 @@
         <v>448045.82</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3368,8 +3854,23 @@
       <c r="W29">
         <v>-0.22</v>
       </c>
+      <c r="X29">
+        <v>1.24</v>
+      </c>
+      <c r="Y29">
+        <v>80.98</v>
+      </c>
+      <c r="Z29">
+        <v>4.05</v>
+      </c>
       <c r="AC29" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3377,22 +3878,25 @@
       <c r="AG29">
         <v>14.64605617523193</v>
       </c>
-      <c r="AH29" t="s">
-        <v>190</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300499</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>3.4</v>
@@ -3410,7 +3914,7 @@
         <v>226864.79</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -3451,8 +3955,23 @@
       <c r="W30">
         <v>-0.11</v>
       </c>
+      <c r="X30">
+        <v>-1.76</v>
+      </c>
+      <c r="Y30">
+        <v>34.23</v>
+      </c>
+      <c r="Z30">
+        <v>4.11</v>
+      </c>
       <c r="AC30" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3460,22 +3979,25 @@
       <c r="AG30">
         <v>1.604066729545593</v>
       </c>
-      <c r="AH30" t="s">
-        <v>190</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300502</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>11.25</v>
@@ -3493,7 +4015,7 @@
         <v>2058921.37</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31">
         <v>47</v>
@@ -3534,8 +4056,23 @@
       <c r="W31">
         <v>0.28</v>
       </c>
+      <c r="X31">
+        <v>0.35</v>
+      </c>
+      <c r="Y31">
+        <v>368</v>
+      </c>
+      <c r="Z31">
+        <v>7.28</v>
+      </c>
       <c r="AC31" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3543,22 +4080,25 @@
       <c r="AG31">
         <v>-1.580553889274597</v>
       </c>
-      <c r="AH31" t="s">
-        <v>190</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300503</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.76</v>
@@ -3576,7 +4116,7 @@
         <v>72875.49000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3617,8 +4157,23 @@
       <c r="W32">
         <v>-0.24</v>
       </c>
+      <c r="X32">
+        <v>-0.1</v>
+      </c>
+      <c r="Y32">
+        <v>30.98</v>
+      </c>
+      <c r="Z32">
+        <v>2.79</v>
+      </c>
       <c r="AC32" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3626,22 +4181,25 @@
       <c r="AG32">
         <v>168.5469207763672</v>
       </c>
-      <c r="AH32" t="s">
-        <v>190</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300533</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8.369999999999999</v>
@@ -3659,7 +4217,7 @@
         <v>107045.81</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3700,8 +4258,23 @@
       <c r="W33">
         <v>0.4</v>
       </c>
+      <c r="X33">
+        <v>-4.84</v>
+      </c>
+      <c r="Y33">
+        <v>44.55</v>
+      </c>
+      <c r="Z33">
+        <v>-1.42</v>
+      </c>
       <c r="AC33" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3709,22 +4282,25 @@
       <c r="AG33">
         <v>1.756380200386047</v>
       </c>
-      <c r="AH33" t="s">
-        <v>190</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300547</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>5.65</v>
@@ -3742,7 +4318,7 @@
         <v>174737.32</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K34">
         <v>10</v>
@@ -3783,8 +4359,23 @@
       <c r="W34">
         <v>0.55</v>
       </c>
+      <c r="X34">
+        <v>-7.78</v>
+      </c>
+      <c r="Y34">
+        <v>53.4</v>
+      </c>
+      <c r="Z34">
+        <v>-0.87</v>
+      </c>
       <c r="AC34" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3792,22 +4383,25 @@
       <c r="AG34">
         <v>4.742156505584717</v>
       </c>
-      <c r="AH34" t="s">
-        <v>190</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300548</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>14.13</v>
@@ -3825,7 +4419,7 @@
         <v>428048.74</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -3866,8 +4460,23 @@
       <c r="W35">
         <v>0.03</v>
       </c>
+      <c r="X35">
+        <v>-11.57</v>
+      </c>
+      <c r="Y35">
+        <v>151.4</v>
+      </c>
+      <c r="Z35">
+        <v>-1.5</v>
+      </c>
       <c r="AC35" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3875,22 +4484,25 @@
       <c r="AG35">
         <v>2.798758029937744</v>
       </c>
-      <c r="AH35" t="s">
-        <v>190</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300570</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>9.369999999999999</v>
@@ -3908,7 +4520,7 @@
         <v>519775.85</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3949,8 +4561,23 @@
       <c r="W36">
         <v>0.54</v>
       </c>
+      <c r="X36">
+        <v>2.53</v>
+      </c>
+      <c r="Y36">
+        <v>145.5</v>
+      </c>
+      <c r="Z36">
+        <v>7.23</v>
+      </c>
       <c r="AC36" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3958,22 +4585,25 @@
       <c r="AG36">
         <v>-8.55601978302002</v>
       </c>
-      <c r="AH36" t="s">
-        <v>190</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300604</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.11</v>
@@ -3991,7 +4621,7 @@
         <v>511756.19</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4032,8 +4662,23 @@
       <c r="W37">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X37">
+        <v>-2.56</v>
+      </c>
+      <c r="Y37">
+        <v>61.55</v>
+      </c>
+      <c r="Z37">
+        <v>1.15</v>
+      </c>
       <c r="AC37" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4041,22 +4686,25 @@
       <c r="AG37">
         <v>64.13580322265625</v>
       </c>
-      <c r="AH37" t="s">
-        <v>190</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300620</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>11.61</v>
@@ -4074,7 +4722,7 @@
         <v>359316.58</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>13</v>
@@ -4115,8 +4763,23 @@
       <c r="W38">
         <v>0.28</v>
       </c>
+      <c r="X38">
+        <v>-3.98</v>
+      </c>
+      <c r="Y38">
+        <v>100.8</v>
+      </c>
+      <c r="Z38">
+        <v>0.33</v>
+      </c>
       <c r="AC38" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4124,22 +4787,25 @@
       <c r="AG38">
         <v>7.959005355834961</v>
       </c>
-      <c r="AH38" t="s">
-        <v>190</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300642</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-6.8</v>
@@ -4157,7 +4823,7 @@
         <v>65760.81</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -4198,8 +4864,23 @@
       <c r="W39">
         <v>-1.01</v>
       </c>
+      <c r="X39">
+        <v>10.4</v>
+      </c>
+      <c r="Y39">
+        <v>31.94</v>
+      </c>
+      <c r="Z39">
+        <v>15.89</v>
+      </c>
       <c r="AC39" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4207,22 +4888,25 @@
       <c r="AG39">
         <v>5.336936950683594</v>
       </c>
-      <c r="AH39" t="s">
-        <v>190</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300724</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>16.65</v>
@@ -4240,7 +4924,7 @@
         <v>500903.83</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4281,8 +4965,23 @@
       <c r="W40">
         <v>-0.47</v>
       </c>
+      <c r="X40">
+        <v>-0.01</v>
+      </c>
+      <c r="Y40">
+        <v>101.38</v>
+      </c>
+      <c r="Z40">
+        <v>3.12</v>
+      </c>
       <c r="AC40" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4290,22 +4989,25 @@
       <c r="AG40">
         <v>11.77006053924561</v>
       </c>
-      <c r="AH40" t="s">
-        <v>190</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300740</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-2.34</v>
@@ -4323,7 +5025,7 @@
         <v>89055.61</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4364,8 +5066,23 @@
       <c r="W41">
         <v>-0.47</v>
       </c>
+      <c r="X41">
+        <v>1.14</v>
+      </c>
+      <c r="Y41">
+        <v>24.28</v>
+      </c>
+      <c r="Z41">
+        <v>7.77</v>
+      </c>
       <c r="AC41" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4373,22 +5090,25 @@
       <c r="AG41">
         <v>0.4231255054473877</v>
       </c>
-      <c r="AH41" t="s">
-        <v>190</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300747</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>8.16</v>
@@ -4406,7 +5126,7 @@
         <v>138034.38</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K42">
         <v>31</v>
@@ -4447,8 +5167,23 @@
       <c r="W42">
         <v>-0.29</v>
       </c>
+      <c r="X42">
+        <v>-0.18</v>
+      </c>
+      <c r="Y42">
+        <v>33</v>
+      </c>
+      <c r="Z42">
+        <v>2.07</v>
+      </c>
       <c r="AC42" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4456,22 +5191,25 @@
       <c r="AG42">
         <v>5.442804336547852</v>
       </c>
-      <c r="AH42" t="s">
-        <v>190</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300748</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.5</v>
@@ -4489,7 +5227,7 @@
         <v>602787.79</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K43">
         <v>35</v>
@@ -4530,8 +5268,23 @@
       <c r="W43">
         <v>0.26</v>
       </c>
+      <c r="X43">
+        <v>-3.73</v>
+      </c>
+      <c r="Y43">
+        <v>44.14</v>
+      </c>
+      <c r="Z43">
+        <v>2.01</v>
+      </c>
       <c r="AC43" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4539,22 +5292,25 @@
       <c r="AG43">
         <v>-0.02806353941559792</v>
       </c>
-      <c r="AH43" t="s">
-        <v>190</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300757</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.2</v>
@@ -4572,7 +5328,7 @@
         <v>346899.64</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4613,8 +5369,23 @@
       <c r="W44">
         <v>-0.54</v>
       </c>
+      <c r="X44">
+        <v>-1.91</v>
+      </c>
+      <c r="Y44">
+        <v>293.88</v>
+      </c>
+      <c r="Z44">
+        <v>10.36</v>
+      </c>
       <c r="AC44" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4622,22 +5393,25 @@
       <c r="AG44">
         <v>-4.403970241546631</v>
       </c>
-      <c r="AH44" t="s">
-        <v>190</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300767</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-5.48</v>
@@ -4655,7 +5429,7 @@
         <v>78207.67</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -4696,8 +5470,23 @@
       <c r="W45">
         <v>-1.84</v>
       </c>
+      <c r="X45">
+        <v>-3.59</v>
+      </c>
+      <c r="Y45">
+        <v>24.27</v>
+      </c>
+      <c r="Z45">
+        <v>2.71</v>
+      </c>
       <c r="AC45" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4705,22 +5494,25 @@
       <c r="AG45">
         <v>-0.3936921358108521</v>
       </c>
-      <c r="AH45" t="s">
-        <v>190</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300803</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.33</v>
@@ -4738,7 +5530,7 @@
         <v>920134.96</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K46">
         <v>13</v>
@@ -4779,8 +5571,23 @@
       <c r="W46">
         <v>-1.19</v>
       </c>
+      <c r="X46">
+        <v>-4.05</v>
+      </c>
+      <c r="Y46">
+        <v>166</v>
+      </c>
+      <c r="Z46">
+        <v>9.73</v>
+      </c>
       <c r="AC46" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4788,22 +5595,25 @@
       <c r="AG46">
         <v>11.48131561279297</v>
       </c>
-      <c r="AH46" t="s">
-        <v>190</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300811</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>6.62</v>
@@ -4821,7 +5631,7 @@
         <v>143421.08</v>
       </c>
       <c r="J47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -4862,8 +5672,23 @@
       <c r="W47">
         <v>0.16</v>
       </c>
+      <c r="X47">
+        <v>-5.19</v>
+      </c>
+      <c r="Y47">
+        <v>77</v>
+      </c>
+      <c r="Z47">
+        <v>0.3</v>
+      </c>
       <c r="AC47" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4871,22 +5696,25 @@
       <c r="AG47">
         <v>8.413427352905273</v>
       </c>
-      <c r="AH47" t="s">
-        <v>190</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300814</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.85</v>
@@ -4904,7 +5732,7 @@
         <v>58084.94</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -4945,8 +5773,23 @@
       <c r="W48">
         <v>-0.09</v>
       </c>
+      <c r="X48">
+        <v>-6.3</v>
+      </c>
+      <c r="Y48">
+        <v>47.06</v>
+      </c>
+      <c r="Z48">
+        <v>-0.93</v>
+      </c>
       <c r="AC48" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4954,22 +5797,25 @@
       <c r="AG48">
         <v>5.352330207824707</v>
       </c>
-      <c r="AH48" t="s">
-        <v>190</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300835</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>1.75</v>
@@ -4987,7 +5833,7 @@
         <v>76413.46000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K49">
         <v>28</v>
@@ -5028,8 +5874,23 @@
       <c r="W49">
         <v>0.6</v>
       </c>
+      <c r="X49">
+        <v>-3.01</v>
+      </c>
+      <c r="Y49">
+        <v>68.38</v>
+      </c>
+      <c r="Z49">
+        <v>1.51</v>
+      </c>
       <c r="AC49" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5037,22 +5898,25 @@
       <c r="AG49">
         <v>-23.26909446716309</v>
       </c>
-      <c r="AH49" t="s">
-        <v>190</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300843</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>15.9</v>
@@ -5070,7 +5934,7 @@
         <v>139080.44</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50">
         <v>10</v>
@@ -5111,8 +5975,23 @@
       <c r="W50">
         <v>1.75</v>
       </c>
+      <c r="X50">
+        <v>-2.02</v>
+      </c>
+      <c r="Y50">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>1.5</v>
+      </c>
       <c r="AC50" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5120,22 +5999,25 @@
       <c r="AG50">
         <v>2.833321094512939</v>
       </c>
-      <c r="AH50" t="s">
-        <v>190</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300870</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>5.79</v>
@@ -5153,7 +6035,7 @@
         <v>177837.02</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K51">
         <v>12</v>
@@ -5194,8 +6076,23 @@
       <c r="W51">
         <v>0.51</v>
       </c>
+      <c r="X51">
+        <v>-4.63</v>
+      </c>
+      <c r="Y51">
+        <v>276</v>
+      </c>
+      <c r="Z51">
+        <v>-0.43</v>
+      </c>
       <c r="AC51" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5203,22 +6100,25 @@
       <c r="AG51">
         <v>-5.056935787200928</v>
       </c>
-      <c r="AH51" t="s">
-        <v>190</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300882</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.97</v>
@@ -5236,7 +6136,7 @@
         <v>42775.18</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5277,8 +6177,23 @@
       <c r="W52">
         <v>-0.14</v>
       </c>
+      <c r="X52">
+        <v>-4.24</v>
+      </c>
+      <c r="Y52">
+        <v>19.15</v>
+      </c>
+      <c r="Z52">
+        <v>1.16</v>
+      </c>
       <c r="AC52" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5286,22 +6201,25 @@
       <c r="AG52">
         <v>1.398608446121216</v>
       </c>
-      <c r="AH52" t="s">
-        <v>190</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300913</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>10.67</v>
@@ -5319,7 +6237,7 @@
         <v>175747.79</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K53">
         <v>8</v>
@@ -5360,8 +6278,23 @@
       <c r="W53">
         <v>0.32</v>
       </c>
+      <c r="X53">
+        <v>-4.56</v>
+      </c>
+      <c r="Y53">
+        <v>65.2</v>
+      </c>
+      <c r="Z53">
+        <v>-2.22</v>
+      </c>
       <c r="AC53" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5369,22 +6302,25 @@
       <c r="AG53">
         <v>7.929653644561768</v>
       </c>
-      <c r="AH53" t="s">
-        <v>190</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300971</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-2.08</v>
@@ -5402,7 +6338,7 @@
         <v>49706.61</v>
       </c>
       <c r="J54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5443,8 +6379,23 @@
       <c r="W54">
         <v>-0.33</v>
       </c>
+      <c r="X54">
+        <v>-5.74</v>
+      </c>
+      <c r="Y54">
+        <v>25.86</v>
+      </c>
+      <c r="Z54">
+        <v>-0.35</v>
+      </c>
       <c r="AC54" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5452,22 +6403,25 @@
       <c r="AG54">
         <v>-49.89455795288086</v>
       </c>
-      <c r="AH54" t="s">
-        <v>190</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300991</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.6</v>
@@ -5485,7 +6439,7 @@
         <v>45502.85</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5526,8 +6480,23 @@
       <c r="W55">
         <v>0.44</v>
       </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>44.94</v>
+      </c>
+      <c r="Z55">
+        <v>2.86</v>
+      </c>
       <c r="AC55" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5535,22 +6504,25 @@
       <c r="AG55">
         <v>1.449665188789368</v>
       </c>
-      <c r="AH55" t="s">
-        <v>190</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301008</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.07</v>
@@ -5568,7 +6540,7 @@
         <v>46716.16</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -5609,8 +6581,23 @@
       <c r="W56">
         <v>-1.24</v>
       </c>
+      <c r="X56">
+        <v>-1.24</v>
+      </c>
+      <c r="Y56">
+        <v>32.79</v>
+      </c>
+      <c r="Z56">
+        <v>1.9</v>
+      </c>
       <c r="AC56" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5618,22 +6605,25 @@
       <c r="AG56">
         <v>2.169673681259155</v>
       </c>
-      <c r="AH56" t="s">
-        <v>190</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301018</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>12.18</v>
@@ -5651,7 +6641,7 @@
         <v>157933.34</v>
       </c>
       <c r="J57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K57">
         <v>12</v>
@@ -5692,8 +6682,23 @@
       <c r="W57">
         <v>0.3</v>
       </c>
+      <c r="X57">
+        <v>1.75</v>
+      </c>
+      <c r="Y57">
+        <v>84.98</v>
+      </c>
+      <c r="Z57">
+        <v>9.210000000000001</v>
+      </c>
       <c r="AC57" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5701,22 +6706,25 @@
       <c r="AG57">
         <v>2.28528356552124</v>
       </c>
-      <c r="AH57" t="s">
-        <v>190</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301123</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>20.01</v>
@@ -5734,7 +6742,7 @@
         <v>128038.03</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5775,8 +6783,23 @@
       <c r="W58">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X58">
+        <v>0.27</v>
+      </c>
+      <c r="Y58">
+        <v>52.98</v>
+      </c>
+      <c r="Z58">
+        <v>10.81</v>
+      </c>
       <c r="AC58" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5784,22 +6807,25 @@
       <c r="AG58">
         <v>9.715347290039062</v>
       </c>
-      <c r="AH58" t="s">
-        <v>191</v>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301128</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1.43</v>
@@ -5817,7 +6843,7 @@
         <v>98052.92</v>
       </c>
       <c r="J59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5858,8 +6884,23 @@
       <c r="W59">
         <v>-0.14</v>
       </c>
+      <c r="X59">
+        <v>-8</v>
+      </c>
+      <c r="Y59">
+        <v>104.49</v>
+      </c>
+      <c r="Z59">
+        <v>1.18</v>
+      </c>
       <c r="AC59" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5867,22 +6908,25 @@
       <c r="AG59">
         <v>3.490192174911499</v>
       </c>
-      <c r="AH59" t="s">
-        <v>190</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301165</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>4.87</v>
@@ -5900,7 +6944,7 @@
         <v>140233.92</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K60">
         <v>13</v>
@@ -5941,8 +6985,23 @@
       <c r="W60">
         <v>0.4</v>
       </c>
+      <c r="X60">
+        <v>-4.7</v>
+      </c>
+      <c r="Y60">
+        <v>92</v>
+      </c>
+      <c r="Z60">
+        <v>-1.09</v>
+      </c>
       <c r="AC60" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5950,22 +7009,25 @@
       <c r="AG60">
         <v>1.682865023612976</v>
       </c>
-      <c r="AH60" t="s">
-        <v>190</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301172</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>2.29</v>
@@ -5983,7 +7045,7 @@
         <v>46196.06</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6024,8 +7086,23 @@
       <c r="W61">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X61">
+        <v>-6</v>
+      </c>
+      <c r="Y61">
+        <v>26.27</v>
+      </c>
+      <c r="Z61">
+        <v>-0.3</v>
+      </c>
       <c r="AC61" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6033,22 +7110,25 @@
       <c r="AG61">
         <v>3.304252862930298</v>
       </c>
-      <c r="AH61" t="s">
-        <v>190</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301183</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>15.15</v>
@@ -6066,7 +7146,7 @@
         <v>178162.14</v>
       </c>
       <c r="J62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K62">
         <v>8</v>
@@ -6107,8 +7187,23 @@
       <c r="W62">
         <v>-0.28</v>
       </c>
+      <c r="X62">
+        <v>-0.47</v>
+      </c>
+      <c r="Y62">
+        <v>113.22</v>
+      </c>
+      <c r="Z62">
+        <v>2.17</v>
+      </c>
       <c r="AC62" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6116,22 +7211,25 @@
       <c r="AG62">
         <v>5.581194877624512</v>
       </c>
-      <c r="AH62" t="s">
-        <v>190</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301217</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.79</v>
@@ -6149,7 +7247,7 @@
         <v>202490.41</v>
       </c>
       <c r="J63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K63">
         <v>39</v>
@@ -6190,8 +7288,23 @@
       <c r="W63">
         <v>0.05</v>
       </c>
+      <c r="X63">
+        <v>-5.4</v>
+      </c>
+      <c r="Y63">
+        <v>35.21</v>
+      </c>
+      <c r="Z63">
+        <v>0.03</v>
+      </c>
       <c r="AC63" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6199,22 +7312,25 @@
       <c r="AG63">
         <v>10.5046443939209</v>
       </c>
-      <c r="AH63" t="s">
-        <v>190</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301312</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>3.98</v>
@@ -6232,7 +7348,7 @@
         <v>57486.57</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K64">
         <v>14</v>
@@ -6273,8 +7389,23 @@
       <c r="W64">
         <v>0.35</v>
       </c>
+      <c r="X64">
+        <v>-0.11</v>
+      </c>
+      <c r="Y64">
+        <v>60.88</v>
+      </c>
+      <c r="Z64">
+        <v>10.89</v>
+      </c>
       <c r="AC64" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6282,22 +7413,25 @@
       <c r="AG64">
         <v>-0.1781427264213562</v>
       </c>
-      <c r="AH64" t="s">
-        <v>190</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301316</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>9.16</v>
@@ -6315,7 +7449,7 @@
         <v>205944.81</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6356,8 +7490,23 @@
       <c r="W65">
         <v>1.13</v>
       </c>
+      <c r="X65">
+        <v>5.63</v>
+      </c>
+      <c r="Y65">
+        <v>64.75</v>
+      </c>
+      <c r="Z65">
+        <v>7.4</v>
+      </c>
       <c r="AC65" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6365,22 +7514,25 @@
       <c r="AG65">
         <v>3.764374017715454</v>
       </c>
-      <c r="AH65" t="s">
-        <v>190</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301363</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-2.66</v>
@@ -6398,7 +7550,7 @@
         <v>54510.82</v>
       </c>
       <c r="J66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6439,8 +7591,23 @@
       <c r="W66">
         <v>-0.72</v>
       </c>
+      <c r="X66">
+        <v>-4.25</v>
+      </c>
+      <c r="Y66">
+        <v>25.18</v>
+      </c>
+      <c r="Z66">
+        <v>1.12</v>
+      </c>
       <c r="AC66" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6448,22 +7615,25 @@
       <c r="AG66">
         <v>5.07340145111084</v>
       </c>
-      <c r="AH66" t="s">
-        <v>190</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301377</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>8.289999999999999</v>
@@ -6481,7 +7651,7 @@
         <v>70627.64</v>
       </c>
       <c r="J67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K67">
         <v>14</v>
@@ -6522,8 +7692,23 @@
       <c r="W67">
         <v>0.44</v>
       </c>
+      <c r="X67">
+        <v>-2.18</v>
+      </c>
+      <c r="Y67">
+        <v>76.39</v>
+      </c>
+      <c r="Z67">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC67" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6531,22 +7716,25 @@
       <c r="AG67">
         <v>1.762572288513184</v>
       </c>
-      <c r="AH67" t="s">
-        <v>190</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301389</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>20.01</v>
@@ -6564,7 +7752,7 @@
         <v>260688.28</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K68">
         <v>38</v>
@@ -6605,8 +7793,23 @@
       <c r="W68">
         <v>5.15</v>
       </c>
+      <c r="X68">
+        <v>5.13</v>
+      </c>
+      <c r="Y68">
+        <v>81.58</v>
+      </c>
+      <c r="Z68">
+        <v>12.4</v>
+      </c>
       <c r="AC68" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6614,22 +7817,25 @@
       <c r="AG68">
         <v>-1.76539158821106</v>
       </c>
-      <c r="AH68" t="s">
-        <v>190</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301488</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>20</v>
@@ -6647,7 +7853,7 @@
         <v>70178.94</v>
       </c>
       <c r="J69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6688,8 +7894,23 @@
       <c r="W69">
         <v>1.9</v>
       </c>
+      <c r="X69">
+        <v>6.69</v>
+      </c>
+      <c r="Y69">
+        <v>131.95</v>
+      </c>
+      <c r="Z69">
+        <v>14.41</v>
+      </c>
       <c r="AC69" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6697,22 +7918,25 @@
       <c r="AG69">
         <v>12.57622146606445</v>
       </c>
-      <c r="AH69" t="s">
-        <v>191</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301489</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>15.49</v>
@@ -6730,7 +7954,7 @@
         <v>94120.78</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K70">
         <v>21</v>
@@ -6771,8 +7995,23 @@
       <c r="W70">
         <v>0.33</v>
       </c>
+      <c r="X70">
+        <v>10.58</v>
+      </c>
+      <c r="Y70">
+        <v>219.98</v>
+      </c>
+      <c r="Z70">
+        <v>12.98</v>
+      </c>
       <c r="AC70" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6780,22 +8019,25 @@
       <c r="AG70">
         <v>4.164393901824951</v>
       </c>
-      <c r="AH70" t="s">
-        <v>190</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301526</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>19.97</v>
@@ -6813,7 +8055,7 @@
         <v>212653.35</v>
       </c>
       <c r="J71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K71">
         <v>16</v>
@@ -6854,8 +8096,23 @@
       <c r="W71">
         <v>3.51</v>
       </c>
+      <c r="X71">
+        <v>-1.27</v>
+      </c>
+      <c r="Y71">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Z71">
+        <v>8.390000000000001</v>
+      </c>
       <c r="AC71" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6863,22 +8120,25 @@
       <c r="AG71">
         <v>6.004813194274902</v>
       </c>
-      <c r="AH71" t="s">
-        <v>190</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301568</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>17.12</v>
@@ -6896,7 +8156,7 @@
         <v>102369.25</v>
       </c>
       <c r="J72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6937,8 +8197,23 @@
       <c r="W72">
         <v>3.82</v>
       </c>
+      <c r="X72">
+        <v>-7.98</v>
+      </c>
+      <c r="Y72">
+        <v>57.99</v>
+      </c>
+      <c r="Z72">
+        <v>-1.41</v>
+      </c>
       <c r="AC72" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6946,22 +8221,25 @@
       <c r="AG72">
         <v>3.612675189971924</v>
       </c>
-      <c r="AH72" t="s">
-        <v>190</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301603</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>11.31</v>
@@ -6979,7 +8257,7 @@
         <v>88320.64999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -7020,8 +8298,23 @@
       <c r="W73">
         <v>-0.44</v>
       </c>
+      <c r="X73">
+        <v>-0.36</v>
+      </c>
+      <c r="Y73">
+        <v>82.8</v>
+      </c>
+      <c r="Z73">
+        <v>4.53</v>
+      </c>
       <c r="AC73" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7029,22 +8322,25 @@
       <c r="AG73">
         <v>6.570072650909424</v>
       </c>
-      <c r="AH73" t="s">
-        <v>190</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301617</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>3.62</v>
@@ -7062,7 +8358,7 @@
         <v>47317.07</v>
       </c>
       <c r="J74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7103,8 +8399,23 @@
       <c r="W74">
         <v>0.27</v>
       </c>
+      <c r="X74">
+        <v>0.18</v>
+      </c>
+      <c r="Y74">
+        <v>63.89</v>
+      </c>
+      <c r="Z74">
+        <v>2.97</v>
+      </c>
       <c r="AC74" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7112,22 +8423,25 @@
       <c r="AG74">
         <v>0.4780430495738983</v>
       </c>
-      <c r="AH74" t="s">
-        <v>190</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688007</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-3.41</v>
@@ -7145,7 +8459,7 @@
         <v>58503.58</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7186,8 +8500,23 @@
       <c r="W75">
         <v>-0.77</v>
       </c>
+      <c r="X75">
+        <v>-3.18</v>
+      </c>
+      <c r="Y75">
+        <v>22.79</v>
+      </c>
+      <c r="Z75">
+        <v>4.54</v>
+      </c>
       <c r="AC75" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7195,22 +8524,25 @@
       <c r="AG75">
         <v>4.036098480224609</v>
       </c>
-      <c r="AH75" t="s">
-        <v>190</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688020</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>6.28</v>
@@ -7228,7 +8560,7 @@
         <v>58542.46</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7269,8 +8601,23 @@
       <c r="W76">
         <v>-0.18</v>
       </c>
+      <c r="X76">
+        <v>-9.16</v>
+      </c>
+      <c r="Y76">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-1.01</v>
+      </c>
       <c r="AC76" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7278,22 +8625,25 @@
       <c r="AG76">
         <v>0.3255111277103424</v>
       </c>
-      <c r="AH76" t="s">
-        <v>190</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688041</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>3.75</v>
@@ -7311,7 +8661,7 @@
         <v>1135307.16</v>
       </c>
       <c r="J77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7352,8 +8702,23 @@
       <c r="W77">
         <v>0.01</v>
       </c>
+      <c r="X77">
+        <v>-5.11</v>
+      </c>
+      <c r="Y77">
+        <v>199.82</v>
+      </c>
+      <c r="Z77">
+        <v>0.34</v>
+      </c>
       <c r="AC77" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7361,22 +8726,25 @@
       <c r="AG77">
         <v>41.6880989074707</v>
       </c>
-      <c r="AH77" t="s">
-        <v>190</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688048</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>9.300000000000001</v>
@@ -7394,7 +8762,7 @@
         <v>116267.23</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K78">
         <v>19</v>
@@ -7435,8 +8803,23 @@
       <c r="W78">
         <v>-0.01</v>
       </c>
+      <c r="X78">
+        <v>-5.45</v>
+      </c>
+      <c r="Y78">
+        <v>82.7</v>
+      </c>
+      <c r="Z78">
+        <v>-1.55</v>
+      </c>
       <c r="AC78" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7444,22 +8827,25 @@
       <c r="AG78">
         <v>7.6841139793396</v>
       </c>
-      <c r="AH78" t="s">
-        <v>190</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688049</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>1.19</v>
@@ -7477,7 +8863,7 @@
         <v>124305.11</v>
       </c>
       <c r="J79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K79">
         <v>11</v>
@@ -7518,8 +8904,23 @@
       <c r="W79">
         <v>0.5</v>
       </c>
+      <c r="X79">
+        <v>-1.14</v>
+      </c>
+      <c r="Y79">
+        <v>63.56</v>
+      </c>
+      <c r="Z79">
+        <v>1.26</v>
+      </c>
       <c r="AC79" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7527,22 +8928,25 @@
       <c r="AG79">
         <v>12.82534217834473</v>
       </c>
-      <c r="AH79" t="s">
-        <v>190</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688062</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-0.33</v>
@@ -7560,7 +8964,7 @@
         <v>82587.74000000001</v>
       </c>
       <c r="J80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7601,8 +9005,23 @@
       <c r="W80">
         <v>0.01</v>
       </c>
+      <c r="X80">
+        <v>4.58</v>
+      </c>
+      <c r="Y80">
+        <v>50.36</v>
+      </c>
+      <c r="Z80">
+        <v>12.09</v>
+      </c>
       <c r="AC80" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7610,22 +9029,25 @@
       <c r="AG80">
         <v>3.046050071716309</v>
       </c>
-      <c r="AH80" t="s">
-        <v>190</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688066</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-0.9399999999999999</v>
@@ -7643,7 +9065,7 @@
         <v>113302.73</v>
       </c>
       <c r="J81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -7684,8 +9106,23 @@
       <c r="W81">
         <v>-0.71</v>
       </c>
+      <c r="X81">
+        <v>17.94</v>
+      </c>
+      <c r="Y81">
+        <v>39.4</v>
+      </c>
+      <c r="Z81">
+        <v>16.43</v>
+      </c>
       <c r="AC81" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7693,22 +9130,25 @@
       <c r="AG81">
         <v>1.975113391876221</v>
       </c>
-      <c r="AH81" t="s">
-        <v>190</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688077</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>4.6</v>
@@ -7726,7 +9166,7 @@
         <v>70507.3</v>
       </c>
       <c r="J82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7767,8 +9207,23 @@
       <c r="W82">
         <v>1.17</v>
       </c>
+      <c r="X82">
+        <v>-3.13</v>
+      </c>
+      <c r="Y82">
+        <v>43.73</v>
+      </c>
+      <c r="Z82">
+        <v>3.87</v>
+      </c>
       <c r="AC82" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7776,22 +9231,25 @@
       <c r="AG82">
         <v>-2.716343879699707</v>
       </c>
-      <c r="AH82" t="s">
-        <v>190</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688110</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>12.97</v>
@@ -7809,7 +9267,7 @@
         <v>481714.89</v>
       </c>
       <c r="J83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K83">
         <v>5</v>
@@ -7850,8 +9308,23 @@
       <c r="W83">
         <v>0.42</v>
       </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>-100</v>
+      </c>
       <c r="AC83" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7859,22 +9332,25 @@
       <c r="AG83">
         <v>1.516405582427979</v>
       </c>
-      <c r="AH83" t="s">
-        <v>190</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688167</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>3.9</v>
@@ -7892,7 +9368,7 @@
         <v>66735.37</v>
       </c>
       <c r="J84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K84">
         <v>17</v>
@@ -7933,8 +9409,23 @@
       <c r="W84">
         <v>0.59</v>
       </c>
+      <c r="X84">
+        <v>-1.95</v>
+      </c>
+      <c r="Y84">
+        <v>138</v>
+      </c>
+      <c r="Z84">
+        <v>6.69</v>
+      </c>
       <c r="AC84" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7942,22 +9433,25 @@
       <c r="AG84">
         <v>3.642797708511353</v>
       </c>
-      <c r="AH84" t="s">
-        <v>190</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688195</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>9.880000000000001</v>
@@ -7975,7 +9469,7 @@
         <v>93977.53999999999</v>
       </c>
       <c r="J85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K85">
         <v>9</v>
@@ -8016,8 +9510,23 @@
       <c r="W85">
         <v>0.73</v>
       </c>
+      <c r="X85">
+        <v>2.87</v>
+      </c>
+      <c r="Y85">
+        <v>73.7</v>
+      </c>
+      <c r="Z85">
+        <v>7.04</v>
+      </c>
       <c r="AC85" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8025,22 +9534,25 @@
       <c r="AG85">
         <v>-0.8851818442344666</v>
       </c>
-      <c r="AH85" t="s">
-        <v>190</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688205</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>14.74</v>
@@ -8058,7 +9570,7 @@
         <v>169047.59</v>
       </c>
       <c r="J86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K86">
         <v>5</v>
@@ -8099,8 +9611,23 @@
       <c r="W86">
         <v>0.63</v>
       </c>
+      <c r="X86">
+        <v>7.05</v>
+      </c>
+      <c r="Y86">
+        <v>125</v>
+      </c>
+      <c r="Z86">
+        <v>7.85</v>
+      </c>
       <c r="AC86" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8108,22 +9635,25 @@
       <c r="AG86">
         <v>-0.5510109066963196</v>
       </c>
-      <c r="AH86" t="s">
-        <v>190</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688228</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>16.79</v>
@@ -8141,7 +9671,7 @@
         <v>155009.92</v>
       </c>
       <c r="J87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8182,8 +9712,23 @@
       <c r="W87">
         <v>-2.03</v>
       </c>
+      <c r="X87">
+        <v>16.52</v>
+      </c>
+      <c r="Y87">
+        <v>158.4</v>
+      </c>
+      <c r="Z87">
+        <v>19.29</v>
+      </c>
       <c r="AC87" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8191,22 +9736,25 @@
       <c r="AG87">
         <v>1.500247836112976</v>
       </c>
-      <c r="AH87" t="s">
-        <v>190</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688256</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>8.17</v>
@@ -8224,7 +9772,7 @@
         <v>2161567.95</v>
       </c>
       <c r="J88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -8265,8 +9813,23 @@
       <c r="W88">
         <v>0.02</v>
       </c>
+      <c r="X88">
+        <v>-6.01</v>
+      </c>
+      <c r="Y88">
+        <v>1534.97</v>
+      </c>
+      <c r="Z88">
+        <v>3.42</v>
+      </c>
       <c r="AC88" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8274,22 +9837,25 @@
       <c r="AG88">
         <v>8.08159351348877</v>
       </c>
-      <c r="AH88" t="s">
-        <v>190</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688270</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>12.95</v>
@@ -8307,7 +9873,7 @@
         <v>174862.54</v>
       </c>
       <c r="J89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K89">
         <v>12</v>
@@ -8348,8 +9914,23 @@
       <c r="W89">
         <v>0</v>
       </c>
+      <c r="X89">
+        <v>-2.01</v>
+      </c>
+      <c r="Y89">
+        <v>84.77</v>
+      </c>
+      <c r="Z89">
+        <v>5.76</v>
+      </c>
       <c r="AC89" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8357,22 +9938,25 @@
       <c r="AG89">
         <v>6.254830360412598</v>
       </c>
-      <c r="AH89" t="s">
-        <v>190</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688313</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>6.3</v>
@@ -8390,7 +9974,7 @@
         <v>401094.86</v>
       </c>
       <c r="J90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K90">
         <v>13</v>
@@ -8431,8 +10015,23 @@
       <c r="W90">
         <v>0.51</v>
       </c>
+      <c r="X90">
+        <v>-3.67</v>
+      </c>
+      <c r="Y90">
+        <v>85.42</v>
+      </c>
+      <c r="Z90">
+        <v>-0.79</v>
+      </c>
       <c r="AC90" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8440,22 +10039,25 @@
       <c r="AG90">
         <v>6.463138580322266</v>
       </c>
-      <c r="AH90" t="s">
-        <v>190</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688343</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-0.48</v>
@@ -8473,7 +10075,7 @@
         <v>329247.18</v>
       </c>
       <c r="J91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K91">
         <v>3</v>
@@ -8514,8 +10116,23 @@
       <c r="W91">
         <v>-0.54</v>
       </c>
+      <c r="X91">
+        <v>6.38</v>
+      </c>
+      <c r="Y91">
+        <v>103.31</v>
+      </c>
+      <c r="Z91">
+        <v>12.22</v>
+      </c>
       <c r="AC91" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8523,22 +10140,25 @@
       <c r="AG91">
         <v>1.03441846370697</v>
       </c>
-      <c r="AH91" t="s">
-        <v>190</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688372</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>3.79</v>
@@ -8556,7 +10176,7 @@
         <v>84921.36</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K92">
         <v>6</v>
@@ -8597,8 +10217,23 @@
       <c r="W92">
         <v>-0.21</v>
       </c>
+      <c r="X92">
+        <v>0.85</v>
+      </c>
+      <c r="Y92">
+        <v>82.72</v>
+      </c>
+      <c r="Z92">
+        <v>2.43</v>
+      </c>
       <c r="AC92" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8606,22 +10241,25 @@
       <c r="AG92">
         <v>-17.68400001525879</v>
       </c>
-      <c r="AH92" t="s">
-        <v>190</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688498</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>5.41</v>
@@ -8639,7 +10277,7 @@
         <v>149145.42</v>
       </c>
       <c r="J93" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K93">
         <v>13</v>
@@ -8680,8 +10318,23 @@
       <c r="W93">
         <v>0.35</v>
       </c>
+      <c r="X93">
+        <v>-5.26</v>
+      </c>
+      <c r="Y93">
+        <v>315.5</v>
+      </c>
+      <c r="Z93">
+        <v>1.25</v>
+      </c>
       <c r="AC93" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8689,22 +10342,25 @@
       <c r="AG93">
         <v>-8.657961845397949</v>
       </c>
-      <c r="AH93" t="s">
-        <v>190</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688502</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>10.13</v>
@@ -8722,7 +10378,7 @@
         <v>89652.85000000001</v>
       </c>
       <c r="J94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K94">
         <v>24</v>
@@ -8763,8 +10419,23 @@
       <c r="W94">
         <v>0.38</v>
       </c>
+      <c r="X94">
+        <v>-5.22</v>
+      </c>
+      <c r="Y94">
+        <v>467.83</v>
+      </c>
+      <c r="Z94">
+        <v>1.63</v>
+      </c>
       <c r="AC94" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8772,22 +10443,25 @@
       <c r="AG94">
         <v>7.922110080718994</v>
       </c>
-      <c r="AH94" t="s">
-        <v>190</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688508</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>2.32</v>
@@ -8805,7 +10479,7 @@
         <v>95673.00999999999</v>
       </c>
       <c r="J95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K95">
         <v>7</v>
@@ -8846,8 +10520,23 @@
       <c r="W95">
         <v>0.11</v>
       </c>
+      <c r="X95">
+        <v>-2.13</v>
+      </c>
+      <c r="Y95">
+        <v>73.5</v>
+      </c>
+      <c r="Z95">
+        <v>1.59</v>
+      </c>
       <c r="AC95" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8855,22 +10544,25 @@
       <c r="AG95">
         <v>9.458852767944336</v>
       </c>
-      <c r="AH95" t="s">
-        <v>190</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688521</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>3.72</v>
@@ -8888,7 +10580,7 @@
         <v>389084.39</v>
       </c>
       <c r="J96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K96">
         <v>7</v>
@@ -8929,8 +10621,23 @@
       <c r="W96">
         <v>0.48</v>
       </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>-100</v>
+      </c>
       <c r="AC96" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8938,22 +10645,25 @@
       <c r="AG96">
         <v>2.936221837997437</v>
       </c>
-      <c r="AH96" t="s">
-        <v>190</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688588</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>6.63</v>
@@ -8971,7 +10681,7 @@
         <v>78025.72</v>
       </c>
       <c r="J97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -9012,8 +10722,23 @@
       <c r="W97">
         <v>0.75</v>
       </c>
+      <c r="X97">
+        <v>-2.72</v>
+      </c>
+      <c r="Y97">
+        <v>23.48</v>
+      </c>
+      <c r="Z97">
+        <v>13.1</v>
+      </c>
       <c r="AC97" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9021,22 +10746,25 @@
       <c r="AG97">
         <v>-3.532543897628784</v>
       </c>
-      <c r="AH97" t="s">
-        <v>190</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688629</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>10.14</v>
@@ -9054,7 +10782,7 @@
         <v>281065.06</v>
       </c>
       <c r="J98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -9095,8 +10823,23 @@
       <c r="W98">
         <v>1.17</v>
       </c>
+      <c r="X98">
+        <v>1.76</v>
+      </c>
+      <c r="Y98">
+        <v>93.95</v>
+      </c>
+      <c r="Z98">
+        <v>6.5</v>
+      </c>
       <c r="AC98" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9104,22 +10847,25 @@
       <c r="AG98">
         <v>5.901523113250732</v>
       </c>
-      <c r="AH98" t="s">
-        <v>190</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688630</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>12.07</v>
@@ -9137,7 +10883,7 @@
         <v>183596.99</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K99">
         <v>26</v>
@@ -9178,8 +10924,23 @@
       <c r="W99">
         <v>-0.5</v>
       </c>
+      <c r="X99">
+        <v>2.67</v>
+      </c>
+      <c r="Y99">
+        <v>146.1</v>
+      </c>
+      <c r="Z99">
+        <v>4.68</v>
+      </c>
       <c r="AC99" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9187,22 +10948,25 @@
       <c r="AG99">
         <v>11.04749488830566</v>
       </c>
-      <c r="AH99" t="s">
-        <v>190</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688652</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>3.49</v>
@@ -9220,7 +10984,7 @@
         <v>48781</v>
       </c>
       <c r="J100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K100">
         <v>5</v>
@@ -9261,8 +11025,23 @@
       <c r="W100">
         <v>0.25</v>
       </c>
+      <c r="X100">
+        <v>-4.78</v>
+      </c>
+      <c r="Y100">
+        <v>75.86</v>
+      </c>
+      <c r="Z100">
+        <v>-0.09</v>
+      </c>
       <c r="AC100" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9270,22 +11049,25 @@
       <c r="AG100">
         <v>4.523675918579102</v>
       </c>
-      <c r="AH100" t="s">
-        <v>190</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688668</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>20</v>
@@ -9303,7 +11085,7 @@
         <v>167961.29</v>
       </c>
       <c r="J101" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K101">
         <v>31</v>
@@ -9344,8 +11126,23 @@
       <c r="W101">
         <v>1.02</v>
       </c>
+      <c r="X101">
+        <v>6.17</v>
+      </c>
+      <c r="Y101">
+        <v>145.19</v>
+      </c>
+      <c r="Z101">
+        <v>14</v>
+      </c>
       <c r="AC101" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9353,22 +11150,25 @@
       <c r="AG101">
         <v>0.4043498635292053</v>
       </c>
-      <c r="AH101" t="s">
-        <v>190</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688709</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>0.09</v>
@@ -9386,7 +11186,7 @@
         <v>59590.59</v>
       </c>
       <c r="J102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K102">
         <v>5</v>
@@ -9427,8 +11227,23 @@
       <c r="W102">
         <v>-0.29</v>
       </c>
+      <c r="X102">
+        <v>-5.17</v>
+      </c>
+      <c r="Y102">
+        <v>45.51</v>
+      </c>
+      <c r="Z102">
+        <v>0.91</v>
+      </c>
       <c r="AC102" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9436,22 +11251,25 @@
       <c r="AG102">
         <v>2.242585420608521</v>
       </c>
-      <c r="AH102" t="s">
-        <v>190</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688787</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>1.06</v>
@@ -9469,7 +11287,7 @@
         <v>94409.11</v>
       </c>
       <c r="J103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -9510,8 +11328,23 @@
       <c r="W103">
         <v>0.09</v>
       </c>
+      <c r="X103">
+        <v>-7.85</v>
+      </c>
+      <c r="Y103">
+        <v>145.98</v>
+      </c>
+      <c r="Z103">
+        <v>0.45</v>
+      </c>
       <c r="AC103" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9519,22 +11352,25 @@
       <c r="AG103">
         <v>9.93878173828125</v>
       </c>
-      <c r="AH103" t="s">
-        <v>190</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688798</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>0.97</v>
@@ -9552,7 +11388,7 @@
         <v>63839.87</v>
       </c>
       <c r="J104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K104">
         <v>7</v>
@@ -9593,8 +11429,23 @@
       <c r="W104">
         <v>-0.23</v>
       </c>
+      <c r="X104">
+        <v>-5.38</v>
+      </c>
+      <c r="Y104">
+        <v>99</v>
+      </c>
+      <c r="Z104">
+        <v>2.58</v>
+      </c>
       <c r="AC104" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9602,22 +11453,25 @@
       <c r="AG104">
         <v>-3.765820264816284</v>
       </c>
-      <c r="AH104" t="s">
-        <v>190</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688800</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>6.65</v>
@@ -9635,7 +11489,7 @@
         <v>133503.91</v>
       </c>
       <c r="J105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K105">
         <v>18</v>
@@ -9676,8 +11530,23 @@
       <c r="W105">
         <v>1.02</v>
       </c>
+      <c r="X105">
+        <v>-1.72</v>
+      </c>
+      <c r="Y105">
+        <v>79.7</v>
+      </c>
+      <c r="Z105">
+        <v>2.73</v>
+      </c>
       <c r="AC105" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9685,22 +11554,25 @@
       <c r="AG105">
         <v>7.231638431549072</v>
       </c>
-      <c r="AH105" t="s">
-        <v>190</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688981</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>14.2</v>
@@ -9718,7 +11590,7 @@
         <v>2438850.56</v>
       </c>
       <c r="J106" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -9759,8 +11631,23 @@
       <c r="W106">
         <v>0.9</v>
       </c>
+      <c r="X106">
+        <v>-3.74</v>
+      </c>
+      <c r="Y106">
+        <v>116</v>
+      </c>
+      <c r="Z106">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="AC106" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9768,8 +11655,11 @@
       <c r="AG106">
         <v>0.2007683366537094</v>
       </c>
-      <c r="AH106" t="s">
-        <v>190</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
